--- a/Kniga1.xlsx
+++ b/Kniga1.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hae19\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repos\Deep-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CA431D-E761-448C-8084-3708B4F32788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAA3539-318D-4318-ADF6-E1F3C2B83484}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{0A3BFCDF-339E-461F-AECB-304581AE8321}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{0A3BFCDF-339E-461F-AECB-304581AE8321}"/>
   </bookViews>
   <sheets>
     <sheet name="Лаб 5" sheetId="1" r:id="rId1"/>
     <sheet name="Лаб 6" sheetId="2" r:id="rId2"/>
+    <sheet name="Лаб7" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="84">
   <si>
     <t>Параметры</t>
   </si>
@@ -203,12 +204,90 @@
   </si>
   <si>
     <t>53.46</t>
+  </si>
+  <si>
+    <t>Количество слоёв в базовой модели</t>
+  </si>
+  <si>
+    <t>weights</t>
+  </si>
+  <si>
+    <t>trainable_weights</t>
+  </si>
+  <si>
+    <t>non_trainable_weights</t>
+  </si>
+  <si>
+    <t>model1</t>
+  </si>
+  <si>
+    <t>model2</t>
+  </si>
+  <si>
+    <t>model3</t>
+  </si>
+  <si>
+    <t>model4</t>
+  </si>
+  <si>
+    <t>model5</t>
+  </si>
+  <si>
+    <t>Dice Score for</t>
+  </si>
+  <si>
+    <t>0.787</t>
+  </si>
+  <si>
+    <t>0.727</t>
+  </si>
+  <si>
+    <t>0.767</t>
+  </si>
+  <si>
+    <t>assemble</t>
+  </si>
+  <si>
+    <t>0.784</t>
+  </si>
+  <si>
+    <t>0.773</t>
+  </si>
+  <si>
+    <t>0.678</t>
+  </si>
+  <si>
+    <t>0.788</t>
+  </si>
+  <si>
+    <t>0.972</t>
+  </si>
+  <si>
+    <t>learning rate</t>
+  </si>
+  <si>
+    <t>0.762</t>
+  </si>
+  <si>
+    <t>dice_coefficient</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>val_dice_coefficient</t>
+  </si>
+  <si>
+    <t>val_loss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -334,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -363,6 +442,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -384,12 +472,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -398,6 +480,31 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,19 +836,19 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="9" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="9"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -817,16 +924,16 @@
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="13" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="17"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -948,7 +1055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191A411B-02EF-4E9C-B100-5CF434864ED5}">
   <dimension ref="B1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -958,30 +1065,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="16" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="16"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="2:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1037,11 +1144,11 @@
       </c>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="2:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
@@ -1096,30 +1203,30 @@
     </row>
     <row r="10" spans="2:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="16" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="16"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="2:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1251,4 +1358,474 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0555A7FB-3233-4DC7-ACCC-9D8D227537DD}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" customWidth="1"/>
+    <col min="9" max="12" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="9">
+        <v>237</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="9">
+        <v>338</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="9">
+        <v>6</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="9">
+        <v>392</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="9">
+        <v>558</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="9">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="9">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="9">
+        <v>77</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="9">
+        <v>110</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="9">
+        <v>242</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="9">
+        <v>344</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="9">
+        <v>10</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="9">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="9">
+        <v>5</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="9">
+        <v>16</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="31">
+        <v>5.0148393958806901E-2</v>
+      </c>
+      <c r="F21" s="31">
+        <v>0.949854135513305</v>
+      </c>
+      <c r="G21" s="31">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H21" s="31">
+        <v>2.78035663068294E-2</v>
+      </c>
+      <c r="I21" s="31">
+        <v>0.97219830751419001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="30">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="31">
+        <v>0.10006059706211</v>
+      </c>
+      <c r="F22" s="31">
+        <v>0.89994418621063199</v>
+      </c>
+      <c r="G22" s="31">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H22" s="31">
+        <v>7.5684629380702903E-2</v>
+      </c>
+      <c r="I22" s="31">
+        <v>0.92432004213333097</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="4">
+        <v>2</v>
+      </c>
+      <c r="E23" s="31">
+        <v>0.18521779775619501</v>
+      </c>
+      <c r="F23" s="31">
+        <v>0.81479007005691495</v>
+      </c>
+      <c r="G23" s="31">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H23" s="31">
+        <v>0.38093939423561002</v>
+      </c>
+      <c r="I23" s="31">
+        <v>0.61908054351806596</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="4">
+        <v>3</v>
+      </c>
+      <c r="E24" s="31">
+        <v>0.29241684079170199</v>
+      </c>
+      <c r="F24" s="31">
+        <v>0.70759493112563998</v>
+      </c>
+      <c r="G24" s="31">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H24" s="31">
+        <v>0.712765753269195</v>
+      </c>
+      <c r="I24" s="31">
+        <v>0.28725185990333502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="4">
+        <v>4</v>
+      </c>
+      <c r="E25" s="31">
+        <v>0.38494548201560902</v>
+      </c>
+      <c r="F25" s="31">
+        <v>0.61506903171539296</v>
+      </c>
+      <c r="G25" s="31">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H25" s="31">
+        <v>0.80245244503021196</v>
+      </c>
+      <c r="I25" s="31">
+        <v>0.197560518980026</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+    </row>
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+    </row>
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D6:I6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Kniga1.xlsx
+++ b/Kniga1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repos\Deep-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAA3539-318D-4318-ADF6-E1F3C2B83484}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14962592-54ED-46B2-B3D7-247C7681B837}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{0A3BFCDF-339E-461F-AECB-304581AE8321}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{0A3BFCDF-339E-461F-AECB-304581AE8321}"/>
   </bookViews>
   <sheets>
     <sheet name="Лаб 5" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="102">
   <si>
     <t>Параметры</t>
   </si>
@@ -279,6 +279,60 @@
   </si>
   <si>
     <t>val_loss</t>
+  </si>
+  <si>
+    <t>Hidden size</t>
+  </si>
+  <si>
+    <t>0.84673</t>
+  </si>
+  <si>
+    <t>0.85779</t>
+  </si>
+  <si>
+    <t>0.30939</t>
+  </si>
+  <si>
+    <t>0.25409</t>
+  </si>
+  <si>
+    <t>0.79345</t>
+  </si>
+  <si>
+    <t>0.7985</t>
+  </si>
+  <si>
+    <t>0.41459</t>
+  </si>
+  <si>
+    <t>0.34194</t>
+  </si>
+  <si>
+    <t>0.88318</t>
+  </si>
+  <si>
+    <t>0.87404</t>
+  </si>
+  <si>
+    <t>0.23362</t>
+  </si>
+  <si>
+    <t>0.21431</t>
+  </si>
+  <si>
+    <t>Аудиозапись</t>
+  </si>
+  <si>
+    <t>Denoised</t>
+  </si>
+  <si>
+    <t>Noised</t>
+  </si>
+  <si>
+    <t>0.47123</t>
+  </si>
+  <si>
+    <t>0.83845</t>
   </si>
 </sst>
 </file>
@@ -286,7 +340,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -413,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -451,36 +505,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -490,6 +514,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -499,12 +566,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -822,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678615E0-EA26-4D68-BC5F-03D048B0A592}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,19 +902,19 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="12" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="12"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -924,16 +990,16 @@
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="16" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1005,41 +1071,125 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="B11" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="B12" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B13" s="12">
+        <v>512</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="12">
+        <v>256</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="12">
+        <v>1024</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="35"/>
+    </row>
+    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="35"/>
+    </row>
+    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="35"/>
+    </row>
+    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="G1:H1"/>
@@ -1065,15 +1215,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="19" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="19"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="2:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
@@ -1203,15 +1353,15 @@
     </row>
     <row r="10" spans="2:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="19" t="s">
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="2:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
@@ -1364,7 +1514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0555A7FB-3233-4DC7-ACCC-9D8D227537DD}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D20" sqref="D20:I25"/>
     </sheetView>
   </sheetViews>
@@ -1383,12 +1533,12 @@
       <c r="B1" s="9">
         <v>237</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1439,7 +1589,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="13"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1448,14 +1598,14 @@
       <c r="B6" s="9">
         <v>392</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="28"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1479,7 +1629,7 @@
       <c r="H7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="15" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1525,12 +1675,12 @@
       <c r="B11" s="9">
         <v>77</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -1588,12 +1738,12 @@
       <c r="B16" s="9">
         <v>242</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -1644,7 +1794,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="9">
@@ -1670,7 +1820,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="9">
@@ -1679,45 +1829,45 @@
       <c r="D21" s="4">
         <v>0</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="18">
         <v>5.0148393958806901E-2</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="18">
         <v>0.949854135513305</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="18">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H21" s="18">
         <v>2.78035663068294E-2</v>
       </c>
-      <c r="I21" s="31">
+      <c r="I21" s="18">
         <v>0.97219830751419001</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="30">
+      <c r="B22" s="17">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="18">
         <v>0.10006059706211</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="18">
         <v>0.89994418621063199</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G22" s="18">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H22" s="31">
+      <c r="H22" s="18">
         <v>7.5684629380702903E-2</v>
       </c>
-      <c r="I22" s="31">
+      <c r="I22" s="18">
         <v>0.92432004213333097</v>
       </c>
     </row>
@@ -1725,19 +1875,19 @@
       <c r="D23" s="4">
         <v>2</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="18">
         <v>0.18521779775619501</v>
       </c>
-      <c r="F23" s="31">
+      <c r="F23" s="18">
         <v>0.81479007005691495</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G23" s="18">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H23" s="31">
+      <c r="H23" s="18">
         <v>0.38093939423561002</v>
       </c>
-      <c r="I23" s="31">
+      <c r="I23" s="18">
         <v>0.61908054351806596</v>
       </c>
     </row>
@@ -1745,19 +1895,19 @@
       <c r="D24" s="4">
         <v>3</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="18">
         <v>0.29241684079170199</v>
       </c>
-      <c r="F24" s="31">
+      <c r="F24" s="18">
         <v>0.70759493112563998</v>
       </c>
-      <c r="G24" s="31">
+      <c r="G24" s="18">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H24" s="31">
+      <c r="H24" s="18">
         <v>0.712765753269195</v>
       </c>
-      <c r="I24" s="31">
+      <c r="I24" s="18">
         <v>0.28725185990333502</v>
       </c>
     </row>
@@ -1765,58 +1915,58 @@
       <c r="D25" s="4">
         <v>4</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="18">
         <v>0.38494548201560902</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="18">
         <v>0.61506903171539296</v>
       </c>
-      <c r="G25" s="31">
+      <c r="G25" s="18">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H25" s="31">
+      <c r="H25" s="18">
         <v>0.80245244503021196</v>
       </c>
-      <c r="I25" s="31">
+      <c r="I25" s="18">
         <v>0.197560518980026</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
     </row>
     <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
     </row>
     <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
